--- a/public/be_assets/quiz/tempImportQuiz.xlsx
+++ b/public/be_assets/quiz/tempImportQuiz.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="sheetQuiz" sheetId="1" r:id="rId4"/>
+    <sheet name="Document" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,13 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
-  <si>
-    <t xml:space="preserve">TEMPLATE QUIZ
-</t>
-  </si>
-  <si>
-    <t>NO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+  <si>
+    <t>KODE</t>
   </si>
   <si>
     <t>JENIS</t>
@@ -33,37 +29,34 @@
     <t>JAWABAN</t>
   </si>
   <si>
-    <t>soal</t>
-  </si>
-  <si>
-    <t>soal pertama dengan gambar</t>
-  </si>
-  <si>
-    <t>img</t>
-  </si>
-  <si>
-    <t>be_assets\quiz\quiz_6d3d977b-f790-41ea-a42c-4035526f9e87.png</t>
+    <t>7631746e7a</t>
+  </si>
+  <si>
+    <t>Soal</t>
+  </si>
+  <si>
+    <t>soal tanpa gmbr no 1</t>
   </si>
   <si>
     <t>option</t>
   </si>
   <si>
-    <t>2a - 10</t>
-  </si>
-  <si>
-    <t>30a - 11</t>
-  </si>
-  <si>
-    <t>200a - 14</t>
-  </si>
-  <si>
-    <t>15a - 55</t>
-  </si>
-  <si>
-    <t>soal tanpa gambar di nomer 2</t>
-  </si>
-  <si>
-    <t>image</t>
+    <t>jwb1</t>
+  </si>
+  <si>
+    <t>jwb2</t>
+  </si>
+  <si>
+    <t>jwb3</t>
+  </si>
+  <si>
+    <t>jwb4</t>
+  </si>
+  <si>
+    <t>jwb5</t>
+  </si>
+  <si>
+    <t>1977cd55a6</t>
   </si>
   <si>
     <t>a</t>
@@ -81,13 +74,49 @@
     <t>e</t>
   </si>
   <si>
-    <t>be_assets\quiz\quiz_8208bc61-f0e6-4063-97c7-1f2838c81123.png</t>
-  </si>
-  <si>
-    <t>soal terakhir</t>
-  </si>
-  <si>
-    <t>be_assets\quiz\quiz_f088991b-b310-4abb-bf54-bb9336bf7087.png</t>
+    <t>21475ccb0a</t>
+  </si>
+  <si>
+    <t>soal tanpa gmbr no 3</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>z1</t>
+  </si>
+  <si>
+    <t>z2</t>
+  </si>
+  <si>
+    <t>7fc0328427</t>
+  </si>
+  <si>
+    <t>benar</t>
+  </si>
+  <si>
+    <t>salah</t>
+  </si>
+  <si>
+    <t>benar dan salah</t>
+  </si>
+  <si>
+    <t>tidak tahu</t>
+  </si>
+  <si>
+    <t>skip</t>
+  </si>
+  <si>
+    <t>be_assets\quiz\quiz_0467c42c-25eb-4b01-b073-509a2ceca9ca.png</t>
+  </si>
+  <si>
+    <t>be_assets\quiz\quiz_3db04a8b-ae4b-49a3-9b6c-f492804111db.png</t>
   </si>
 </sst>
 </file>
@@ -114,40 +143,17 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -164,19 +170,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3028950</xdr:colOff>
+      <xdr:colOff>3838575</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>876300</xdr:rowOff>
+      <xdr:rowOff>2809875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 3" descr=""/>
+        <xdr:cNvPr id="1" name="Picture 6" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -189,7 +195,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="0">
-          <a:ext cx="3019425" cy="809625"/>
+          <a:ext cx="3838575" cy="2714625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -202,98 +208,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3057525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1800225</xdr:rowOff>
+      <xdr:colOff>3019425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>933450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr=""/>
+        <xdr:cNvPr id="2" name="Picture 10" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0">
-          <a:ext cx="3057525" cy="1809750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3181350</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1028700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1" descr=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0">
-          <a:ext cx="3019425" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3038475</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>866775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 2" descr=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -602,342 +534,322 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1" topLeftCell="A11">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A4">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="64" customWidth="true" style="0"/>
-    <col min="4" max="4" width="28.5703125" customWidth="true" style="0"/>
+    <col min="3" max="3" width="76.42578125" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>4</v>
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" customHeight="1" ht="117">
-      <c r="B7" s="1" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" customHeight="1" ht="231.75">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" customHeight="1" ht="117">
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
+      <c r="C8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
+      <c r="C14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1"/>
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
       </c>
       <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
     <row r="18" spans="1:4">
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>18</v>
+      <c r="A18" s="1"/>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>19</v>
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
+    <row r="20" spans="1:4" customHeight="1" ht="75.75">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" customHeight="1" ht="153">
-      <c r="B22" s="1" t="s">
-        <v>7</v>
+      <c r="A21" s="1"/>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="B23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>16</v>
+      <c r="A23" s="1"/>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>17</v>
+      <c r="A24" s="1"/>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>18</v>
+      <c r="A25" s="1"/>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
       </c>
       <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="B26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="B27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" customHeight="1" ht="75.75">
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="B32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="B33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="B34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-      <c r="D34">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A25"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/be_assets/quiz/tempImportQuiz.xlsx
+++ b/public/be_assets/quiz/tempImportQuiz.xlsx
@@ -113,10 +113,10 @@
     <t>skip</t>
   </si>
   <si>
-    <t>be_assets\quiz\quiz_0467c42c-25eb-4b01-b073-509a2ceca9ca.png</t>
-  </si>
-  <si>
-    <t>be_assets\quiz\quiz_3db04a8b-ae4b-49a3-9b6c-f492804111db.png</t>
+    <t>be_assets\quiz\quiz_0f13a20c-16f0-4fbf-a33f-c6cecf985e19.png</t>
+  </si>
+  <si>
+    <t>be_assets\quiz\quiz_9fe95eef-eb1c-4350-a67f-d437a7203f5a.png</t>
   </si>
 </sst>
 </file>
@@ -536,8 +536,8 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A4">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A8">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/public/be_assets/quiz/tempImportQuiz.xlsx
+++ b/public/be_assets/quiz/tempImportQuiz.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>KODE</t>
   </si>
@@ -29,36 +29,18 @@
     <t>JAWABAN</t>
   </si>
   <si>
-    <t>7631746e7a</t>
+    <t>fe4b188dbc</t>
   </si>
   <si>
     <t>Soal</t>
   </si>
   <si>
-    <t>soal tanpa gmbr no 1</t>
+    <t>test</t>
   </si>
   <si>
     <t>option</t>
   </si>
   <si>
-    <t>jwb1</t>
-  </si>
-  <si>
-    <t>jwb2</t>
-  </si>
-  <si>
-    <t>jwb3</t>
-  </si>
-  <si>
-    <t>jwb4</t>
-  </si>
-  <si>
-    <t>jwb5</t>
-  </si>
-  <si>
-    <t>1977cd55a6</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -74,49 +56,19 @@
     <t>e</t>
   </si>
   <si>
-    <t>21475ccb0a</t>
-  </si>
-  <si>
-    <t>soal tanpa gmbr no 3</t>
-  </si>
-  <si>
-    <t>x</t>
+    <t>27b6b7f639</t>
+  </si>
+  <si>
+    <t>okeoke</t>
   </si>
   <si>
     <t>y</t>
   </si>
   <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>z1</t>
-  </si>
-  <si>
-    <t>z2</t>
-  </si>
-  <si>
-    <t>7fc0328427</t>
-  </si>
-  <si>
-    <t>benar</t>
-  </si>
-  <si>
-    <t>salah</t>
-  </si>
-  <si>
-    <t>benar dan salah</t>
-  </si>
-  <si>
-    <t>tidak tahu</t>
-  </si>
-  <si>
-    <t>skip</t>
-  </si>
-  <si>
-    <t>be_assets\quiz\quiz_0467c42c-25eb-4b01-b073-509a2ceca9ca.png</t>
-  </si>
-  <si>
-    <t>be_assets\quiz\quiz_3db04a8b-ae4b-49a3-9b6c-f492804111db.png</t>
+    <t>u</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -163,85 +115,6 @@
   <dxfs count="0"/>
   <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3838575</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>2809875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 6" descr=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0">
-          <a:ext cx="3838575" cy="2714625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3019425</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>933450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 10" descr=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0">
-          <a:ext cx="3019425" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,15 +407,16 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A4">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="76.42578125" customWidth="true" style="0"/>
+    <col min="3" max="3" width="24.5703125" customWidth="true" style="0"/>
+    <col min="4" max="4" width="32.7109375" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -579,7 +453,7 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -603,7 +477,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -630,7 +504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" customHeight="1" ht="231.75">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -638,7 +512,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -647,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -662,7 +536,7 @@
         <v>15</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -695,152 +569,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17">
         <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1"/>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" customHeight="1" ht="75.75">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1"/>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1"/>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1"/>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1"/>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1"/>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -848,8 +580,6 @@
   <mergeCells>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A25"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -862,7 +592,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
   <tableParts count="0"/>
 </worksheet>
 </file>
--- a/public/be_assets/quiz/tempImportQuiz.xlsx
+++ b/public/be_assets/quiz/tempImportQuiz.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>KODE</t>
   </si>
@@ -29,18 +29,36 @@
     <t>JAWABAN</t>
   </si>
   <si>
-    <t>fe4b188dbc</t>
+    <t>7631746e7a</t>
   </si>
   <si>
     <t>Soal</t>
   </si>
   <si>
-    <t>test</t>
+    <t>soal tanpa gmbr no 1</t>
   </si>
   <si>
     <t>option</t>
   </si>
   <si>
+    <t>jwb1</t>
+  </si>
+  <si>
+    <t>jwb2</t>
+  </si>
+  <si>
+    <t>jwb3</t>
+  </si>
+  <si>
+    <t>jwb4</t>
+  </si>
+  <si>
+    <t>jwb5</t>
+  </si>
+  <si>
+    <t>1977cd55a6</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
@@ -56,19 +74,49 @@
     <t>e</t>
   </si>
   <si>
-    <t>27b6b7f639</t>
-  </si>
-  <si>
-    <t>okeoke</t>
+    <t>21475ccb0a</t>
+  </si>
+  <si>
+    <t>soal tanpa gmbr no 3</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>y</t>
   </si>
   <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>i</t>
+    <t>z</t>
+  </si>
+  <si>
+    <t>z1</t>
+  </si>
+  <si>
+    <t>z2</t>
+  </si>
+  <si>
+    <t>7fc0328427</t>
+  </si>
+  <si>
+    <t>benar</t>
+  </si>
+  <si>
+    <t>salah</t>
+  </si>
+  <si>
+    <t>benar dan salah</t>
+  </si>
+  <si>
+    <t>tidak tahu</t>
+  </si>
+  <si>
+    <t>skip</t>
+  </si>
+  <si>
+    <t>be_assets\quiz\quiz_196dda76-d0ff-4427-b625-de3e05d093f2.png</t>
+  </si>
+  <si>
+    <t>be_assets\quiz\quiz_610cfa06-03fe-43c1-b2ef-ebd8063e5c94.png</t>
   </si>
 </sst>
 </file>
@@ -115,6 +163,85 @@
   <dxfs count="0"/>
   <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3838575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2809875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 6" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0">
+          <a:ext cx="3838575" cy="2714625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3019425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>933450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 10" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0">
+          <a:ext cx="3019425" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,16 +534,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A8">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="24.5703125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="32.7109375" customWidth="true" style="0"/>
+    <col min="3" max="3" width="76.42578125" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -453,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -477,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -504,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" customHeight="1" ht="231.75">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -512,7 +638,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -521,7 +647,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -536,7 +662,7 @@
         <v>15</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -569,10 +695,152 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
         <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" customHeight="1" ht="75.75">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1"/>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1"/>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -580,6 +848,8 @@
   <mergeCells>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A25"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -592,6 +862,7 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
   <tableParts count="0"/>
 </worksheet>
 </file>
--- a/public/be_assets/quiz/tempImportQuiz.xlsx
+++ b/public/be_assets/quiz/tempImportQuiz.xlsx
@@ -113,10 +113,10 @@
     <t>skip</t>
   </si>
   <si>
-    <t>be_assets\quiz\quiz_196dda76-d0ff-4427-b625-de3e05d093f2.png</t>
-  </si>
-  <si>
-    <t>be_assets\quiz\quiz_610cfa06-03fe-43c1-b2ef-ebd8063e5c94.png</t>
+    <t>be_assets\quiz\quiz_85eeecca-55e1-4345-82d8-a4394816e667.png</t>
+  </si>
+  <si>
+    <t>be_assets\quiz\quiz_2de2e258-18fb-4dcb-a4d3-5bca8c0dfd88.png</t>
   </si>
 </sst>
 </file>

--- a/public/be_assets/quiz/tempImportQuiz.xlsx
+++ b/public/be_assets/quiz/tempImportQuiz.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>KODE</t>
   </si>
@@ -29,94 +29,22 @@
     <t>JAWABAN</t>
   </si>
   <si>
-    <t>7631746e7a</t>
+    <t>5d84b0e2a1</t>
   </si>
   <si>
     <t>Soal</t>
   </si>
   <si>
-    <t>soal tanpa gmbr no 1</t>
+    <t>1+1 =</t>
   </si>
   <si>
     <t>option</t>
   </si>
   <si>
-    <t>jwb1</t>
-  </si>
-  <si>
-    <t>jwb2</t>
-  </si>
-  <si>
-    <t>jwb3</t>
-  </si>
-  <si>
-    <t>jwb4</t>
-  </si>
-  <si>
-    <t>jwb5</t>
-  </si>
-  <si>
-    <t>1977cd55a6</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>21475ccb0a</t>
-  </si>
-  <si>
-    <t>soal tanpa gmbr no 3</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>z1</t>
-  </si>
-  <si>
-    <t>z2</t>
-  </si>
-  <si>
-    <t>7fc0328427</t>
-  </si>
-  <si>
-    <t>benar</t>
-  </si>
-  <si>
-    <t>salah</t>
-  </si>
-  <si>
-    <t>benar dan salah</t>
-  </si>
-  <si>
-    <t>tidak tahu</t>
-  </si>
-  <si>
-    <t>skip</t>
-  </si>
-  <si>
-    <t>be_assets\quiz\quiz_ea1cd550-6efc-4194-8baf-a4bbca4c0104.png</t>
-  </si>
-  <si>
-    <t>be_assets\quiz\quiz_fa246c22-2f09-40a4-93ab-72cb81bfa4ee.png</t>
+    <t>20136b751f</t>
+  </si>
+  <si>
+    <t>5+5=</t>
   </si>
 </sst>
 </file>
@@ -163,85 +91,6 @@
   <dxfs count="0"/>
   <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3838575</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>2809875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 6" descr=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0">
-          <a:ext cx="3838575" cy="2714625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3019425</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>933450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 10" descr=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0">
-          <a:ext cx="3019425" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,16 +383,13 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A8">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="3" max="3" width="76.42578125" customWidth="true" style="0"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -575,8 +421,8 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="C3">
+        <v>2</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -587,8 +433,8 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="C4">
+        <v>3</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -599,8 +445,8 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
+      <c r="C5">
+        <v>4</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -611,8 +457,8 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
+      <c r="C6">
+        <v>5</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -623,22 +469,22 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
+      <c r="C7">
+        <v>6</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" customHeight="1" ht="231.75">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -646,8 +492,8 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="C9">
+        <v>2</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -658,11 +504,11 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
+      <c r="C10">
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -670,11 +516,11 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
-        <v>16</v>
+      <c r="C11">
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -682,8 +528,8 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
-        <v>17</v>
+      <c r="C12">
+        <v>43</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -694,152 +540,10 @@
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
-        <v>18</v>
+      <c r="C13">
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1"/>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" customHeight="1" ht="75.75">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1"/>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1"/>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1"/>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1"/>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1"/>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25">
         <v>0</v>
       </c>
     </row>
@@ -848,8 +552,6 @@
   <mergeCells>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A25"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -862,7 +564,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
   <tableParts count="0"/>
 </worksheet>
 </file>
--- a/public/be_assets/quiz/tempImportQuiz.xlsx
+++ b/public/be_assets/quiz/tempImportQuiz.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>KODE</t>
   </si>
@@ -113,10 +113,28 @@
     <t>skip</t>
   </si>
   <si>
-    <t>be_assets\quiz\quiz_683ce45d-1d52-45f1-8108-12bb8cec38b5.png</t>
-  </si>
-  <si>
-    <t>be_assets\quiz\quiz_6af1a5fd-587c-4d63-80e7-1ed11f428820.png</t>
+    <t>26475ccb0a</t>
+  </si>
+  <si>
+    <t>soal tanpa gmbr no 3 test soal soal</t>
+  </si>
+  <si>
+    <t>wwwwwww</t>
+  </si>
+  <si>
+    <t>2647yccb0a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soal tanpa gmbr no 3 test soal soal soal </t>
+  </si>
+  <si>
+    <t>yyyyy</t>
+  </si>
+  <si>
+    <t>be_assets\quiz\quiz_623da1a3-2639-40b3-b196-9aa92919aa4f.png</t>
+  </si>
+  <si>
+    <t>be_assets\quiz\quiz_9ebf37a5-8a17-4cc3-bd29-6cdc2477fb4d.png</t>
   </si>
 </sst>
 </file>
@@ -534,10 +552,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A8">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A20">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -638,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -780,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -843,13 +861,157 @@
         <v>0</v>
       </c>
     </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1"/>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1"/>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1"/>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1"/>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1"/>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1"/>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1"/>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1"/>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1"/>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1"/>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="A32:A37"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A31"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/be_assets/quiz/tempImportQuiz.xlsx
+++ b/public/be_assets/quiz/tempImportQuiz.xlsx
@@ -131,10 +131,10 @@
     <t>yyyyy</t>
   </si>
   <si>
-    <t>be_assets\quiz\quiz_623da1a3-2639-40b3-b196-9aa92919aa4f.png</t>
-  </si>
-  <si>
-    <t>be_assets\quiz\quiz_9ebf37a5-8a17-4cc3-bd29-6cdc2477fb4d.png</t>
+    <t>be_assets\quiz\quiz_c35783d2-d19b-4123-b6d0-cf19587376fd.png</t>
+  </si>
+  <si>
+    <t>be_assets\quiz\quiz_c144d876-827c-4391-923d-a2625ca8478a.png</t>
   </si>
 </sst>
 </file>
@@ -554,8 +554,8 @@
   </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A20">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A17">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
